--- a/MoM_Master.xlsx
+++ b/MoM_Master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/praveenchaudhary/Downloads/Agent/Reconciliation/downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/praveenchaudhary/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90B3DC97-9863-0144-8528-108E63FCDAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6829024-F2E6-2848-B861-73CE881E2B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="18460" xr2:uid="{1E7EC110-B73B-0041-B496-59EFA424EC67}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="18460" activeTab="4" xr2:uid="{1E7EC110-B73B-0041-B496-59EFA424EC67}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="84">
   <si>
     <t>UserID</t>
   </si>
@@ -63,33 +63,15 @@
     <t>praveen.chaudhary@koenig-solutions.com</t>
   </si>
   <si>
-    <t>EA-Director’s Office</t>
-  </si>
-  <si>
     <t>Manager</t>
   </si>
   <si>
-    <t>Amit Kumar</t>
-  </si>
-  <si>
     <t>Accounts/Finance</t>
   </si>
   <si>
     <t>Executive</t>
   </si>
   <si>
-    <t>Rohit Sharma</t>
-  </si>
-  <si>
-    <t>Sales</t>
-  </si>
-  <si>
-    <t>RMS Team Member</t>
-  </si>
-  <si>
-    <t>RMS Team</t>
-  </si>
-  <si>
     <t>TaskID</t>
   </si>
   <si>
@@ -123,33 +105,15 @@
     <t>LastUpdateBy</t>
   </si>
   <si>
-    <t>Submit monthly report</t>
-  </si>
-  <si>
-    <t>Prepare and submit monthly analytics report</t>
-  </si>
-  <si>
     <t>pending</t>
   </si>
   <si>
-    <t>Share latest sales forecast</t>
-  </si>
-  <si>
-    <t>Provide updated revenue forecast for next quarter</t>
-  </si>
-  <si>
     <t>MeetingName</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Weekly Finance Review</t>
-  </si>
-  <si>
-    <t>Boss – Strategic Review</t>
-  </si>
-  <si>
     <t>LogID</t>
   </si>
   <si>
@@ -172,13 +136,169 @@
   </si>
   <si>
     <t>EscalatedTo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account Heads </t>
+  </si>
+  <si>
+    <t>what is the status of matching in All locations of India. Hope work has been started for this?</t>
+  </si>
+  <si>
+    <t>Sunil Kumar Kushwaha</t>
+  </si>
+  <si>
+    <t>Sarika Gupta</t>
+  </si>
+  <si>
+    <t>sunilkumar.kushwaha@koenig-solutions.com</t>
+  </si>
+  <si>
+    <t>sarika.gupta@koenig-solutions.com</t>
+  </si>
+  <si>
+    <t>Assitt. Manager</t>
+  </si>
+  <si>
+    <t>Ritika Bhalla</t>
+  </si>
+  <si>
+    <t>ritika.bhalla@koenig-solutions.com</t>
+  </si>
+  <si>
+    <t>Anurag Chauhan</t>
+  </si>
+  <si>
+    <t>Tripti Sharma</t>
+  </si>
+  <si>
+    <t>Aditya Singh</t>
+  </si>
+  <si>
+    <t>Jatin Khurana</t>
+  </si>
+  <si>
+    <t>aditya.singh@koenig-solutions.com</t>
+  </si>
+  <si>
+    <t>anurag.chauhan@koenig-solutions.com</t>
+  </si>
+  <si>
+    <t>tripti.sharma@koenig-solutions.com</t>
+  </si>
+  <si>
+    <t>jatin.khurana@koenig-solutions.com</t>
+  </si>
+  <si>
+    <t>Jony Saini</t>
+  </si>
+  <si>
+    <t>Dimna</t>
+  </si>
+  <si>
+    <t>Nishant Yesh</t>
+  </si>
+  <si>
+    <t>Krishna Jha</t>
+  </si>
+  <si>
+    <t>Tamanna Alisha</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Center Manager Dubai</t>
+  </si>
+  <si>
+    <t>Center Manager Gurgaon</t>
+  </si>
+  <si>
+    <t>Office Executive</t>
+  </si>
+  <si>
+    <t>Center Management</t>
+  </si>
+  <si>
+    <t>nupur.munjal@koenig-solutions.com</t>
+  </si>
+  <si>
+    <t>vipin.nautiyal@koenig-solutions.com</t>
+  </si>
+  <si>
+    <t>Dimna.K@koenig-solutions.com</t>
+  </si>
+  <si>
+    <t>Nishant.Yash@koenig-solutions.com</t>
+  </si>
+  <si>
+    <t>Krishna.kumar@koenig-solutions.com</t>
+  </si>
+  <si>
+    <t>Tamanna.Alisha@koenig-solutions.com</t>
+  </si>
+  <si>
+    <t>COM</t>
+  </si>
+  <si>
+    <t>Nupur Munjal</t>
+  </si>
+  <si>
+    <t>Center Manager Bangalore</t>
+  </si>
+  <si>
+    <t>Accounts Payable</t>
+  </si>
+  <si>
+    <t>Accounts Receivable</t>
+  </si>
+  <si>
+    <t>ar@koenig-solutions.com</t>
+  </si>
+  <si>
+    <t>ap@koenig-solutions.com</t>
+  </si>
+  <si>
+    <t>Ap Team</t>
+  </si>
+  <si>
+    <t>Ar Team</t>
+  </si>
+  <si>
+    <t>Vipin Nautiyal</t>
+  </si>
+  <si>
+    <t>jony.saini@koenig-solutions.com</t>
+  </si>
+  <si>
+    <t>Dehradun Center Management</t>
+  </si>
+  <si>
+    <t>Raahil Share in RT</t>
+  </si>
+  <si>
+    <t>What is the status?</t>
+  </si>
+  <si>
+    <t>Labour Codes</t>
+  </si>
+  <si>
+    <t>I was expecting Salary breakup as per new announcement</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discussion on Account HeadsAccount Heads </t>
+  </si>
+  <si>
+    <t>Labour Codes Implimentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -197,6 +317,26 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF383C3F"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF383C3F"/>
+      <name val="Aptos Display"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -231,18 +371,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -575,16 +723,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CEACB2-7F45-9A4B-B86E-DEEBE2D7E1D4}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.1640625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="40.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -606,128 +755,374 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>1086</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>3638</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>35</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>2627</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>39</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>521</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>3411</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>3306</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>2211</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>3412</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>3201</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>2825</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>3135</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>702</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>3313</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>1687</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>2</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{78BA0BB5-0953-224E-8EC6-1613181B1132}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{2E2E6676-0266-0243-A4DC-1EF3A4816C03}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{E9327DCD-5D1D-0D44-AE9E-862090B0F103}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{EF22CE25-7228-F94B-A3B5-75F9A4A81C0A}"/>
+    <hyperlink ref="C16" r:id="rId5" xr:uid="{8B322BF9-0205-3A47-8AE6-809718A0CA9F}"/>
+    <hyperlink ref="C11" r:id="rId6" xr:uid="{6DBD75D5-C1F2-5547-A423-8412F1F439F0}"/>
+    <hyperlink ref="C12" r:id="rId7" xr:uid="{96EAD836-BBDF-244D-8868-250B59041C70}"/>
+    <hyperlink ref="C13" r:id="rId8" xr:uid="{03D4C50D-B476-B94C-9033-47DC9119DE4C}"/>
+    <hyperlink ref="C14" r:id="rId9" xr:uid="{856DC359-C327-8E4F-8282-73A5C86AA293}"/>
+    <hyperlink ref="C15" r:id="rId10" xr:uid="{940D3532-8B85-6C42-86E1-0E697EBE23E1}"/>
+    <hyperlink ref="C17" r:id="rId11" xr:uid="{F9998B89-604E-654F-AF1E-3B7799399F6B}"/>
+    <hyperlink ref="C18" r:id="rId12" xr:uid="{5874F51B-F97E-F344-9020-212AB8C1691C}"/>
+    <hyperlink ref="C6" r:id="rId13" xr:uid="{A8E11E9C-4313-5047-B7C3-867DB77EFECA}"/>
+    <hyperlink ref="C7" r:id="rId14" xr:uid="{BB525CD5-04A8-2944-B81D-8462C7DCB97A}"/>
+    <hyperlink ref="C8" r:id="rId15" xr:uid="{9DAB7DF8-9962-FE43-904C-E57F82D53A19}"/>
+    <hyperlink ref="C9" r:id="rId16" xr:uid="{934F43BD-E4D1-8B47-9E32-B55A41A6FBC9}"/>
+    <hyperlink ref="C10" r:id="rId17" xr:uid="{F9D8BE15-1349-8B4F-83CD-0DF1D811A791}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C63530-F5A6-8548-83E5-560795C0F1A2}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L3"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="29.5" customWidth="1"/>
-    <col min="4" max="4" width="40.83203125" customWidth="1"/>
+    <col min="3" max="3" width="41" customWidth="1"/>
+    <col min="4" max="4" width="49.6640625" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="11" max="11" width="22.83203125" customWidth="1"/>
+    <col min="12" max="12" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -735,31 +1130,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1086</v>
       </c>
       <c r="G2" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H2" s="3">
         <v>45997</v>
       </c>
       <c r="I2" s="3">
-        <v>46000</v>
+        <v>46296</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -769,34 +1164,72 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>999</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1086</v>
       </c>
       <c r="G3" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H3" s="3">
         <v>45997</v>
       </c>
       <c r="I3" s="3">
-        <v>45995</v>
+        <v>46022</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>3638</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4" s="3">
+        <v>46000</v>
+      </c>
+      <c r="I4" s="3">
+        <v>46005</v>
+      </c>
+      <c r="J4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" s="3">
+        <v>46001</v>
+      </c>
+      <c r="L4" s="9">
+        <v>3638</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -805,10 +1238,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7645BE-94C4-1F4F-A0BC-5C00FBA712EB}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -818,39 +1251,50 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="C2" s="3">
-        <v>45997</v>
+        <v>46000</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>999</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="C3" s="3">
-        <v>45997</v>
+        <v>46000</v>
       </c>
       <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="3">
+        <v>46000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -862,26 +1306,26 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E3"/>
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -892,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D2" s="3">
         <v>45997</v>
@@ -909,7 +1353,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D3" s="3">
         <v>45997</v>
@@ -927,27 +1371,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F1B4C1-943A-BC4B-A481-BC20C44562DB}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -964,7 +1408,7 @@
         <v>45997</v>
       </c>
       <c r="E2" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/MoM_Master.xlsx
+++ b/MoM_Master.xlsx
@@ -1022,7 +1022,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1099,45 +1099,57 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>AI-Extract</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Account Heads </t>
+          <t>Share TDS certificates for Q2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>what is the status of matching in All locations of India. Hope work has been started for this?</t>
+          <t>Confirm that TDS certificates for Q2 have been shared with all vendors.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Accounts/Finance</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1086</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4</v>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Sarika</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>AI-Agent</t>
+        </is>
       </c>
       <c r="H2" s="12" t="n">
-        <v>45997</v>
+        <v>46000.62807072917</v>
       </c>
       <c r="I2" s="12" t="n">
-        <v>46296</v>
+        <v>46000.62807067129</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="K2" s="12" t="n">
+        <v>46000.62807072917</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>AI-Agent</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr">
         <is>
           <t>Regular</t>
@@ -1146,45 +1158,57 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AI-Extract</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Raahil Share in RT</t>
+          <t>Complete books in Tally</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>What is the status?</t>
+          <t>Ensure that the books in Tally for all individuals, including HUF, are completed.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Accounts/Finance</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1086</v>
-      </c>
-      <c r="G3" t="n">
-        <v>4</v>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Team Member</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>AI-Agent</t>
+        </is>
       </c>
       <c r="H3" s="12" t="n">
-        <v>45997</v>
+        <v>46000.62807094907</v>
       </c>
       <c r="I3" s="12" t="n">
-        <v>46022</v>
+        <v>45275</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="K3" s="12" t="n">
+        <v>46000.62807094907</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>AI-Agent</t>
+        </is>
+      </c>
       <c r="M3" t="inlineStr">
         <is>
           <t>Regular</t>
@@ -1193,48 +1217,56 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
+        <v>21</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AI-Extract</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Labour Codes</t>
+          <t>Manage personal investments</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>I was expecting Salary breakup as per new announcement</t>
+          <t>Take care of personal investments and ensure timely renewal/encashment.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Accounts/Finance</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3638</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4</v>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Team Member</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>AI-Agent</t>
+        </is>
       </c>
       <c r="H4" s="12" t="n">
-        <v>46000</v>
+        <v>46000.62807118055</v>
       </c>
       <c r="I4" s="12" t="n">
-        <v>46005</v>
+        <v>46000.62807111111</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>pending</t>
         </is>
       </c>
       <c r="K4" s="12" t="n">
-        <v>46001</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3638</v>
+        <v>46000.62807118055</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>AI-Agent</t>
+        </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -1244,21 +1276,21 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TEST-001</t>
+          <t>AI-Extract</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Test Task - Follow up on Japan Entity</t>
+          <t>Inform on entity transfer</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>This is a test task to verify saving works</t>
+          <t>Notify once an entity is transferred to another person.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1268,7 +1300,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Aditya</t>
+          <t>Sunil / Sarika</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -1277,12 +1309,10 @@
         </is>
       </c>
       <c r="H5" s="12" t="n">
-        <v>46000.52108457176</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2024-01-15</t>
-        </is>
+        <v>46000.62807143519</v>
+      </c>
+      <c r="I5" s="12" t="n">
+        <v>46000.62807134259</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -1290,7 +1320,7 @@
         </is>
       </c>
       <c r="K5" s="12" t="n">
-        <v>46000.52108457176</v>
+        <v>46000.62807143519</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -1305,684 +1335,678 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AI-Extract</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DIAGNOSTIC TEST</t>
+          <t>Close APR and apply for ODI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Testing save function</t>
+          <t>Close the APR part and apply for ODI for Malaysia as soon as possible.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sunil</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>AI-Agent</t>
+        </is>
+      </c>
+      <c r="H6" s="12" t="n">
+        <v>46000.62807166667</v>
+      </c>
+      <c r="I6" s="12" t="n">
+        <v>46000.62807160879</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="K6" s="12" t="n">
+        <v>46000.62807166667</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>AI-Agent</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>AI-Extract</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Send emails regarding tax calculations</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Continue sending emails to employees regarding tax calculations.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sarika</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>AI-Agent</t>
+        </is>
+      </c>
+      <c r="H7" s="12" t="n">
+        <v>46001.46513834491</v>
+      </c>
+      <c r="I7" s="12" t="n">
+        <v>46008.46513825232</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="K7" s="12" t="n">
+        <v>46001.46513834491</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>AI-Agent</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>AI-Extract</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Provide Balance Sheet</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Prepare and provide the Balance Sheet by 15th June; a foreign trip will be sponsored.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sunil / Sarika</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>AI-Agent</t>
+        </is>
+      </c>
+      <c r="H8" s="12" t="n">
+        <v>46001.46513872685</v>
+      </c>
+      <c r="I8" s="12" t="n">
+        <v>45458</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="K8" s="12" t="n">
+        <v>46001.46513872685</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>AI-Agent</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>AI-Extract</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Obtain SOA from creditors</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Obtain Statement of Accounts from all creditors to match balances and avoid issues during Income Tax assessments.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Aditya</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>AI-Agent</t>
+        </is>
+      </c>
+      <c r="H9" s="12" t="n">
+        <v>46001.46513898148</v>
+      </c>
+      <c r="I9" s="12" t="n">
+        <v>46008.46513891203</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="K9" s="12" t="n">
+        <v>46001.46513898148</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>AI-Agent</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>AI-Extract</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Prior approval for leave</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Ensure that prior approval is obtained at least one month in advance for leave of more than one day.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>AI-Agent</t>
+        </is>
+      </c>
+      <c r="H10" s="12" t="n">
+        <v>46001.46513935185</v>
+      </c>
+      <c r="I10" s="12" t="n">
+        <v>46008.46513925926</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="K10" s="12" t="n">
+        <v>46001.46513935185</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>AI-Agent</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>AI-Extract</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ensure salary payment by 10th</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Ensure that salary is received by the 10th of every month from AP/Payroll.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sarika</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>AI-Agent</t>
+        </is>
+      </c>
+      <c r="H11" s="12" t="n">
+        <v>46001.4651395949</v>
+      </c>
+      <c r="I11" s="12" t="n">
+        <v>46008.46513952546</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="K11" s="12" t="n">
+        <v>46001.4651395949</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>AI-Agent</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>AI-Extract</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Conduct bank reconciliation</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Perform bank reconciliation once every six months.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sunil</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>AI-Agent</t>
+        </is>
+      </c>
+      <c r="H12" s="12" t="n">
+        <v>46001.46513983796</v>
+      </c>
+      <c r="I12" s="12" t="n">
+        <v>46008.46513976852</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="K12" s="12" t="n">
+        <v>46001.46513983796</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>AI-Agent</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>AI-Extract</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Import bank statements</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Import bank statements twice a week.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sunil</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>AI-Agent</t>
+        </is>
+      </c>
+      <c r="H13" s="12" t="n">
+        <v>46001.46514008102</v>
+      </c>
+      <c r="I13" s="12" t="n">
+        <v>46008.46514001158</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="K13" s="12" t="n">
+        <v>46001.46514008102</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>AI-Agent</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>AI-Extract</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Use credit note for invoice modification</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>For cancellation/modification of a sales invoice, use a credit note. Do not modify invoices; cancel, raise a credit note, and issue a fresh invoice.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Sales</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Ajay/Jatin</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>AI-Agent</t>
+        </is>
+      </c>
+      <c r="H14" s="12" t="n">
+        <v>46001.46514034722</v>
+      </c>
+      <c r="I14" s="12" t="n">
+        <v>46008.46514027777</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="K14" s="12" t="n">
+        <v>46001.46514034722</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>AI-Agent</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>AI-Extract</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Share list of UK audit issues</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Share the list of UK issues faced during the last audit.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Finance</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Sarika</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>AI-Agent</t>
+        </is>
+      </c>
+      <c r="H15" s="12" t="n">
+        <v>46001.465140625</v>
+      </c>
+      <c r="I15" s="12" t="n">
+        <v>46008.46514055556</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+      <c r="K15" s="12" t="n">
+        <v>46001.465140625</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>AI-Agent</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>AI-Extract</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Recheck addresses across platforms</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Recheck and confirm that all addresses are updated across all platforms for all entities. Inform once completed.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>IT</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Test User</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Diagnostic Script</t>
-        </is>
-      </c>
-      <c r="H6" s="12" t="n">
-        <v>46000.5414237963</v>
-      </c>
-      <c r="I6" s="12" t="n">
-        <v>46007.54142375</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>AI-Agent</t>
+        </is>
+      </c>
+      <c r="H16" s="12" t="n">
+        <v>46001.46514087963</v>
+      </c>
+      <c r="I16" s="12" t="n">
+        <v>46008.46514079861</v>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-      <c r="K6" s="12" t="n">
-        <v>46000.5414237963</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Diagnostic Script</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
+      <c r="K16" s="12" t="n">
+        <v>46001.46514087963</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>AI-Agent</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>Regular</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>DIAGNOSTIC TEST</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Testing save function</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Test User</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Diagnostic Script</t>
-        </is>
-      </c>
-      <c r="H7" s="12" t="n">
-        <v>46000.57029274305</v>
-      </c>
-      <c r="I7" s="12" t="n">
-        <v>46007.57029269676</v>
-      </c>
-      <c r="J7" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>AI-Extract</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Focus on automation and team utilization</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Provide ratings for each team member as requested last month regarding automation and team utilization.</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Sunil/Sarika</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>AI-Agent</t>
+        </is>
+      </c>
+      <c r="H17" s="12" t="n">
+        <v>46001.46514114583</v>
+      </c>
+      <c r="I17" s="12" t="n">
+        <v>46008.46514106481</v>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
       </c>
-      <c r="K7" s="12" t="n">
-        <v>46000.57029274305</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Diagnostic Script</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>followup</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>jatin</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>praveen.chaudhary@koenig-solutions.com</t>
-        </is>
-      </c>
-      <c r="H8" s="12" t="n">
-        <v>46000.57272923611</v>
-      </c>
-      <c r="I8" s="12" t="n">
-        <v>46000</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="K8" s="12" t="n">
-        <v>46000.57272923611</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>praveen.chaudhary@koenig-solutions.com</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Finalize Q4 Marketing Budget</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Review and approve the final Q4 marketing budget, ensuring alignment with company goals.</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Marketing</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Rajesh Kumar</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>AI-Agent</t>
-        </is>
-      </c>
-      <c r="H9" s="12" t="n">
-        <v>46000.57748271991</v>
-      </c>
-      <c r="I9" s="12" t="n">
-        <v>46006</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="K9" s="12" t="n">
-        <v>46000.57748271991</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>AI-Agent</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Complete Cybersecurity Audit</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Conduct a comprehensive cybersecurity audit for all company systems and networks.</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Priya Sharma</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>AI-Agent</t>
-        </is>
-      </c>
-      <c r="H10" s="12" t="n">
-        <v>46000.57748292824</v>
-      </c>
-      <c r="I10" s="12" t="n">
-        <v>46011</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="K10" s="12" t="n">
-        <v>46000.57748292824</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>AI-Agent</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Japan Status</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Aditya</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>praveen.chaudhary@koenig-solutions.com</t>
-        </is>
-      </c>
-      <c r="H11" s="12" t="n">
-        <v>46000.5857334375</v>
-      </c>
-      <c r="I11" s="12" t="n">
-        <v>46001</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="K11" s="12" t="n">
-        <v>46000.5857334375</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>praveen.chaudhary@koenig-solutions.com</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>AI-Extract</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Follow up on Japan Entity</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Closely monitor the status and progress of the Japan Entity.</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Aditya</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>AI-Agent</t>
-        </is>
-      </c>
-      <c r="H12" s="12" t="n">
-        <v>46000.61282564815</v>
-      </c>
-      <c r="I12" s="12" t="n">
-        <v>46000.61282556713</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="K12" s="12" t="n">
-        <v>46000.61282564815</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>AI-Agent</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>AI-Extract</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Ensure bills against payments</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Collect bills for every payment, even if approved by AP for Rohit Sir.</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Aditya</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>AI-Agent</t>
-        </is>
-      </c>
-      <c r="H13" s="12" t="n">
-        <v>46000.61282600695</v>
-      </c>
-      <c r="I13" s="12" t="n">
-        <v>46000.61282594907</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="K13" s="12" t="n">
-        <v>46000.61282600695</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>AI-Agent</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>AI-Extract</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Book expenses in personal name</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>If bills cannot be found, book expenses in the personal name.</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Aditya</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>AI-Agent</t>
-        </is>
-      </c>
-      <c r="H14" s="12" t="n">
-        <v>46000.61282623842</v>
-      </c>
-      <c r="I14" s="12" t="n">
-        <v>46000.61282616898</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="K14" s="12" t="n">
-        <v>46000.61282623842</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>AI-Agent</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>AI-Extract</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Follow up on Japan Entity</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Closely monitor the status and progress of the Japan Entity.</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Aditya</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>AI-Agent</t>
-        </is>
-      </c>
-      <c r="H15" s="12" t="n">
-        <v>46000.62806936343</v>
-      </c>
-      <c r="I15" s="12" t="n">
-        <v>46000.62806928241</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="K15" s="12" t="n">
-        <v>46000.62806936343</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>AI-Agent</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>AI-Extract</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Ensure bills for payments</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Obtain bills against every payment, even if AP has approved it for Rohit Sir.</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Aditya</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>AI-Agent</t>
-        </is>
-      </c>
-      <c r="H16" s="12" t="n">
-        <v>46000.62806965278</v>
-      </c>
-      <c r="I16" s="12" t="n">
-        <v>46000.62806958333</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="K16" s="12" t="n">
-        <v>46000.62806965278</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>AI-Agent</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>AI-Extract</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Book expenses in personal name</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>If bills cannot be found, book expenses in the personal name.</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Aditya</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>AI-Agent</t>
-        </is>
-      </c>
-      <c r="H17" s="12" t="n">
-        <v>46000.62806990741</v>
-      </c>
-      <c r="I17" s="12" t="n">
-        <v>46000.62806984954</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
       <c r="K17" s="12" t="n">
-        <v>46000.62806990741</v>
+        <v>46001.46514114583</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1990,419 +2014,6 @@
         </is>
       </c>
       <c r="M17" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>AI-Extract</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Deposit TDS</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Ensure TDS is deposited by the 5th of every month and report any delays.</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Sarika / Sunil</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>AI-Agent</t>
-        </is>
-      </c>
-      <c r="H18" s="12" t="n">
-        <v>46000.62807017361</v>
-      </c>
-      <c r="I18" s="12" t="n">
-        <v>46000.62807011574</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="K18" s="12" t="n">
-        <v>46000.62807017361</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>AI-Agent</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>AI-Extract</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Revise AP guidelines for TDS</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Add the point regarding 2% TDS and revise it in the AP guidelines.</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Anurag</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>AI-Agent</t>
-        </is>
-      </c>
-      <c r="H19" s="12" t="n">
-        <v>46000.62807049768</v>
-      </c>
-      <c r="I19" s="12" t="n">
-        <v>46000.62807041666</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="K19" s="12" t="n">
-        <v>46000.62807049768</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>AI-Agent</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>AI-Extract</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Share TDS certificates for Q2</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Confirm that TDS certificates for Q2 have been shared with all vendors.</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Sarika</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>AI-Agent</t>
-        </is>
-      </c>
-      <c r="H20" s="12" t="n">
-        <v>46000.62807072917</v>
-      </c>
-      <c r="I20" s="12" t="n">
-        <v>46000.62807067129</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="K20" s="12" t="n">
-        <v>46000.62807072917</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>AI-Agent</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>AI-Extract</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Complete books in Tally</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Ensure that the books in Tally for all individuals, including HUF, are completed.</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Team Member</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>AI-Agent</t>
-        </is>
-      </c>
-      <c r="H21" s="12" t="n">
-        <v>46000.62807094907</v>
-      </c>
-      <c r="I21" s="12" t="n">
-        <v>45275</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="K21" s="12" t="n">
-        <v>46000.62807094907</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>AI-Agent</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>AI-Extract</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Manage personal investments</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Take care of personal investments and ensure timely renewal/encashment.</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Team Member</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>AI-Agent</t>
-        </is>
-      </c>
-      <c r="H22" s="12" t="n">
-        <v>46000.62807118055</v>
-      </c>
-      <c r="I22" s="12" t="n">
-        <v>46000.62807111111</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="K22" s="12" t="n">
-        <v>46000.62807118055</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>AI-Agent</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>AI-Extract</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Inform on entity transfer</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Notify once an entity is transferred to another person.</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Sunil / Sarika</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>AI-Agent</t>
-        </is>
-      </c>
-      <c r="H23" s="12" t="n">
-        <v>46000.62807143519</v>
-      </c>
-      <c r="I23" s="12" t="n">
-        <v>46000.62807134259</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="K23" s="12" t="n">
-        <v>46000.62807143519</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>AI-Agent</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>AI-Extract</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Close APR and apply for ODI</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Close the APR part and apply for ODI for Malaysia as soon as possible.</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Sunil</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>AI-Agent</t>
-        </is>
-      </c>
-      <c r="H24" s="12" t="n">
-        <v>46000.6280716678</v>
-      </c>
-      <c r="I24" s="12" t="n">
-        <v>46000.62807160526</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="K24" s="12" t="n">
-        <v>46000.62807166782</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>AI-Agent</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
         <is>
           <t>Regular</t>
         </is>
